--- a/public/planilha_exemplo_usuarios.xlsx
+++ b/public/planilha_exemplo_usuarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18740" windowHeight="14560"/>
+    <workbookView windowWidth="20280" windowHeight="17000"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -35,16 +35,19 @@
     <t>Nome</t>
   </si>
   <si>
-    <t>Email</t>
+    <t>Usuário</t>
   </si>
   <si>
     <t>Telefone</t>
   </si>
   <si>
-    <t>Status</t>
+    <t>Documento</t>
   </si>
   <si>
-    <t>CPF</t>
+    <t>Setor</t>
+  </si>
+  <si>
+    <t>Senha</t>
   </si>
   <si>
     <t>até 36 caracteres</t>
@@ -56,16 +59,13 @@
     <t>email@email.com.br</t>
   </si>
   <si>
-    <t>Ativo</t>
+    <t>não obrigatório - max 60 caracteres</t>
   </si>
   <si>
     <t>Nome Com Sobrenome2</t>
   </si>
   <si>
-    <t>email@email.com.br2</t>
-  </si>
-  <si>
-    <t>Inativo</t>
+    <t>código_da_empresa_123</t>
   </si>
 </sst>
 </file>
@@ -1232,21 +1232,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="12.86"/>
-    <col min="3" max="3" width="21.43" customWidth="1"/>
-    <col min="4" max="6" width="13"/>
+    <col min="1" max="1" width="16.7" customWidth="1"/>
+    <col min="2" max="2" width="23.8" customWidth="1"/>
+    <col min="3" max="3" width="26.6" customWidth="1"/>
+    <col min="4" max="5" width="13"/>
+    <col min="6" max="6" width="34.3" customWidth="1"/>
+    <col min="7" max="7" width="7.7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1265,52 +1267,57 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" ht="14.5" spans="1:6">
+    <row r="2" ht="14.5" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>43998547578</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
+      <c r="E2">
         <v>12345678900</v>
       </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>123123</v>
+      </c>
     </row>
-    <row r="3" ht="14.5" spans="1:6">
+    <row r="3" ht="14.5" spans="1:7">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>43998547579</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
+      <c r="E3">
         <v>12345678901</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>123123</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="email@email.com.br"/>
-    <hyperlink ref="C3" r:id="rId2" display="email@email.com.br2" tooltip="mailto:email@email.com.br2"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/public/planilha_exemplo_usuarios.xlsx
+++ b/public/planilha_exemplo_usuarios.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Id</t>
   </si>
@@ -35,19 +35,13 @@
     <t>Nome</t>
   </si>
   <si>
-    <t>Usuário</t>
-  </si>
-  <si>
     <t>Telefone</t>
   </si>
   <si>
-    <t>Documento</t>
+    <t>Código do Setor</t>
   </si>
   <si>
     <t>Setor</t>
-  </si>
-  <si>
-    <t>Senha</t>
   </si>
   <si>
     <t>até 36 caracteres</t>
@@ -56,16 +50,10 @@
     <t>Nome Com Sobrenome</t>
   </si>
   <si>
-    <t>email@email.com.br</t>
-  </si>
-  <si>
     <t>não obrigatório - max 60 caracteres</t>
   </si>
   <si>
     <t>Nome Com Sobrenome2</t>
-  </si>
-  <si>
-    <t>código_da_empresa_123</t>
   </si>
 </sst>
 </file>
@@ -689,14 +677,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1235,16 +1220,16 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="16.7" customWidth="1"/>
     <col min="2" max="2" width="23.8" customWidth="1"/>
-    <col min="3" max="3" width="26.6" customWidth="1"/>
-    <col min="4" max="5" width="13"/>
-    <col min="6" max="6" width="34.3" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="15.8" customWidth="1"/>
+    <col min="5" max="6" width="34.3" customWidth="1"/>
     <col min="7" max="7" width="7.7" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1264,57 +1249,40 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2">
+        <v>43998547578</v>
+      </c>
+      <c r="D2">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="14.5" spans="1:7">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>43998547579</v>
+      </c>
+      <c r="D3">
+        <v>321</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>43998547578</v>
-      </c>
-      <c r="E2">
-        <v>12345678900</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>123123</v>
-      </c>
-    </row>
-    <row r="3" ht="14.5" spans="1:7">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>43998547579</v>
-      </c>
-      <c r="E3">
-        <v>12345678901</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>123123</v>
       </c>
     </row>
   </sheetData>

--- a/public/planilha_exemplo_usuarios.xlsx
+++ b/public/planilha_exemplo_usuarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20280" windowHeight="17000"/>
+    <workbookView windowWidth="19200" windowHeight="17600"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Id</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Nome Com Sobrenome</t>
-  </si>
-  <si>
-    <t>não obrigatório - max 60 caracteres</t>
   </si>
   <si>
     <t>Nome Com Sobrenome2</t>
@@ -1220,7 +1217,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1251,7 +1248,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1261,28 +1258,16 @@
       <c r="C2">
         <v>43998547578</v>
       </c>
-      <c r="D2">
-        <v>123</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>43998547579</v>
-      </c>
-      <c r="D3">
-        <v>321</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
